--- a/examples/XlsxPeasant_05_styles.xlsx
+++ b/examples/XlsxPeasant_05_styles.xlsx
@@ -760,7 +760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C8F3D1-BAB7-446C-9A5C-2A5AE94ECBBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229DB6D2-A9AA-4813-8619-19186E46D5A6}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
